--- a/data/trans_camb/P1403-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P1403-Dificultad-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>-5.512282152099393</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.5106135964956127</v>
+        <v>0.5106135964956154</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-8.117477461498904</v>
+        <v>-8.015233743302348</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-10.08660722706022</v>
+        <v>-10.34131242588716</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-7.888030440415878</v>
+        <v>-7.290112792921525</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-5.58783357972005</v>
+        <v>-5.829435454623496</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-8.072388076271121</v>
+        <v>-7.906717582295367</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-0.2517290160851059</v>
+        <v>-0.3598882176070974</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-6.128890882560764</v>
+        <v>-6.358789936136167</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-8.045884833733076</v>
+        <v>-8.56985083316939</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-2.517968474786465</v>
+        <v>-2.416698681326952</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-0.3628185121011467</v>
+        <v>0.02155435048042248</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-2.453029051831792</v>
+        <v>-2.662936077814114</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.402051648724147</v>
+        <v>1.337538270821804</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.053818626757186</v>
+        <v>1.725398623769721</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-0.6930128683988662</v>
+        <v>-0.6616132151469843</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>7.902890640154101</v>
+        <v>7.687079285419951</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>-0.7493041687376485</v>
+        <v>-0.3614151278482299</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-2.912574920033018</v>
+        <v>-2.873066828387396</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>3.492825668224126</v>
+        <v>3.719903773064982</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>-0.2439928323017968</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.02260153856117867</v>
+        <v>0.02260153856117879</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.3624942850563668</v>
+        <v>-0.3615344233957898</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.4364606255400427</v>
+        <v>-0.4449640824774639</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.3535085885123003</v>
+        <v>-0.3337294989745989</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.214966676646912</v>
+        <v>-0.2195889682364389</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3053732698312188</v>
+        <v>-0.2998223389957856</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.00768881555000228</v>
+        <v>-0.01422430734716363</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2515897744124733</v>
+        <v>-0.2584727441599382</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3357105792255214</v>
+        <v>-0.3463792107108305</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.1007378501536659</v>
+        <v>-0.09829356362891742</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.01911499436948904</v>
+        <v>0.005548871503870212</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.12976349161858</v>
+        <v>-0.1465215746226797</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.07741067782599052</v>
+        <v>0.07363875336418091</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.09515096309576253</v>
+        <v>0.07660824873521847</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.0319973413993166</v>
+        <v>-0.02941091011937546</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3681010362253375</v>
+        <v>0.344543386809967</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.03647716603485038</v>
+        <v>-0.01586125570172704</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.1394662199141351</v>
+        <v>-0.1382518186811382</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.1635664962797916</v>
+        <v>0.1784866753523404</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>1.000545967649305</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>5.904471387140836</v>
+        <v>5.904471387140833</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>5.290841937295713</v>
@@ -878,7 +878,7 @@
         <v>1.543943948083379</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>6.134539081055476</v>
+        <v>6.134539081055479</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.017477890796362</v>
+        <v>2.09624016349059</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.225391071664773</v>
+        <v>-1.075795826421534</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3.059170306688117</v>
+        <v>2.846833287264087</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.703008145636955</v>
+        <v>1.80074056210959</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.432622835414752</v>
+        <v>-2.207023849282323</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>2.986564020087429</v>
+        <v>2.89399257538294</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>3.046239210307736</v>
+        <v>2.976763766583778</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.579969419085851</v>
+        <v>-0.6640100921309612</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>4.038945439315197</v>
+        <v>4.08604687493211</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>8.262530866933469</v>
+        <v>8.266778622433964</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.817913438267095</v>
+        <v>4.861315169611512</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9.086690352565123</v>
+        <v>8.915520586451036</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8.851163106959577</v>
+        <v>8.562401476959664</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>4.239442986939604</v>
+        <v>4.471781112258662</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>8.7578497075021</v>
+        <v>8.850941842389878</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>7.455969621830056</v>
+        <v>7.674397349547736</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>3.853038400644884</v>
+        <v>3.553032569542304</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>8.35324518621386</v>
+        <v>8.41178041356167</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>0.06257510394834648</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3692713006264166</v>
+        <v>0.3692713006264164</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.3735182008697876</v>
@@ -983,7 +983,7 @@
         <v>0.1089979955112139</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.4330807890081133</v>
+        <v>0.4330807890081135</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.1457667501396854</v>
+        <v>0.1380018237088321</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.08802818713177969</v>
+        <v>-0.0777251531782867</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.2236849106830038</v>
+        <v>0.2090926633219893</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.1033260687178363</v>
+        <v>0.1053061519515709</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1388816394772555</v>
+        <v>-0.1264074706303651</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1595827892681266</v>
+        <v>0.1617752761777785</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1991905361637848</v>
+        <v>0.1987531064554418</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.0401861016693601</v>
+        <v>-0.04500544596473757</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.2707326387551289</v>
+        <v>0.2639402290829146</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.7506125664400626</v>
+        <v>0.7332128934044881</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.431127815855248</v>
+        <v>0.4365437198907861</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.829207903336588</v>
+        <v>0.8105803165310441</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.6057192238257894</v>
+        <v>0.616277375623952</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.288576802561928</v>
+        <v>0.3009845312895882</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.6111449665314367</v>
+        <v>0.620260965283154</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5623377473835647</v>
+        <v>0.574200530091048</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2876236146184847</v>
+        <v>0.2738949961371892</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.6383801968660652</v>
+        <v>0.6412484251166074</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>4.928601986465828</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8.562185242015946</v>
+        <v>8.562185242015943</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>8.157709941921254</v>
@@ -1083,7 +1083,7 @@
         <v>4.638838658179107</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>5.420767102606167</v>
+        <v>5.420767102606169</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>7.224393085097837</v>
@@ -1092,7 +1092,7 @@
         <v>4.809272912111763</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>7.037036415323543</v>
+        <v>7.037036415323541</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>3.091374683086782</v>
+        <v>2.994419136495321</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.606360530182692</v>
+        <v>1.983471527939856</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5.491796309284852</v>
+        <v>5.709952843824964</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>4.797385950808482</v>
+        <v>4.735109597667461</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>1.189220419771335</v>
+        <v>1.047220293284433</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>2.644361833222263</v>
+        <v>2.578494488521018</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>4.806521897207142</v>
+        <v>4.867228652280039</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>2.320718906547711</v>
+        <v>2.452831325706829</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>4.949357070371589</v>
+        <v>4.835905212461206</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>9.59939722009849</v>
+        <v>9.555958125579242</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.852858164546748</v>
+        <v>8.176883461675525</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>11.44645277827519</v>
+        <v>11.67676830687728</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>11.52164677142472</v>
+        <v>11.56129314339225</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>8.366457001718581</v>
+        <v>8.021101383646743</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>8.239762646873753</v>
+        <v>8.151504677025494</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>9.662133724775163</v>
+        <v>9.799175220176823</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>7.201074266927609</v>
+        <v>7.246984833246017</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>9.005099560428667</v>
+        <v>9.171972421027107</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.4243920139877285</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.7372725671445023</v>
+        <v>0.7372725671445021</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.6210782784991531</v>
@@ -1188,7 +1188,7 @@
         <v>0.3531728816750092</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4127041442023336</v>
+        <v>0.4127041442023339</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.5860085518729745</v>
@@ -1197,7 +1197,7 @@
         <v>0.3901054416047698</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.5708110661541184</v>
+        <v>0.5708110661541181</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.2267899202941409</v>
+        <v>0.232210381029108</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.1226159178786447</v>
+        <v>0.1435674445652702</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.4114605593742742</v>
+        <v>0.4251742594275972</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.3143872301956454</v>
+        <v>0.3167409569233687</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.07984252637680109</v>
+        <v>0.06531296214222446</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1567214421944378</v>
+        <v>0.1827316735650218</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.35963689417774</v>
+        <v>0.361019952067857</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.1677639044927258</v>
+        <v>0.1778285918210891</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.3595810700185082</v>
+        <v>0.3647270084889556</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.9486433772143166</v>
+        <v>0.9129960873057094</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.7359879500404464</v>
+        <v>0.8098333122915332</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.092861919485647</v>
+        <v>1.093840843285099</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.9844161648274889</v>
+        <v>0.9637294441803349</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.7022402516619104</v>
+        <v>0.6770619540880647</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.7216696357165248</v>
+        <v>0.7227498514905376</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.855510962991613</v>
+        <v>0.8412694567506556</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.6204431847326981</v>
+        <v>0.6202349415998725</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.7921145190408772</v>
+        <v>0.8326996789418866</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.470913929683579</v>
+        <v>2.752010124379747</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>3.746546473057331</v>
+        <v>3.840542721998398</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>7.88197184009604</v>
+        <v>7.657676998838554</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.4593821721376677</v>
+        <v>-0.01208635068858116</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.877355064187262</v>
+        <v>-2.110251480820425</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>1.881894286624583</v>
+        <v>2.526263468050467</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>2.522249806977679</v>
+        <v>2.607414881602985</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>2.191737179877518</v>
+        <v>2.374149445874408</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>6.810458519790988</v>
+        <v>6.944155753361075</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>10.88896660060815</v>
+        <v>11.0993019573777</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>12.28604898937602</v>
+        <v>12.37136730939772</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>14.99317808579751</v>
+        <v>14.99704101463532</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>9.677404361483564</v>
+        <v>9.861747796891434</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>6.943295842958038</v>
+        <v>7.131514278891317</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>10.37863759193558</v>
+        <v>10.65776825616288</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>8.981270346090531</v>
+        <v>9.189916523295041</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>8.372187040452033</v>
+        <v>8.658763310511345</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>11.96784960470569</v>
+        <v>12.11098212625027</v>
       </c>
     </row>
     <row r="25">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.2601600765079923</v>
+        <v>0.242848937194788</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.3548851172670165</v>
+        <v>0.3700065439808765</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.7249301093389703</v>
+        <v>0.7044294394569001</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.04930128362602168</v>
+        <v>-0.0265100768598741</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2151750669426588</v>
+        <v>-0.162406208640291</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1479713264434843</v>
+        <v>0.1761789137947406</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2190536549577819</v>
+        <v>0.2293732388918408</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.205160566287095</v>
+        <v>0.210732567067226</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.5965718384179275</v>
+        <v>0.5941419345305465</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.658034176448274</v>
+        <v>1.66067465645472</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.849559511159208</v>
+        <v>1.866454765957237</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>2.362816589690185</v>
+        <v>2.297937928015633</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.106186040298316</v>
+        <v>1.112491634461299</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.8022660301280224</v>
+        <v>0.8360782786634059</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.240762326492593</v>
+        <v>1.378906091126544</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.092280030962244</v>
+        <v>1.147691848219444</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.039730659351455</v>
+        <v>1.102915270579314</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.510100129204797</v>
+        <v>1.56220261220627</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>0.8072904643764867</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>4.028947994435262</v>
+        <v>4.028947994435264</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>3.893991498826852</v>
@@ -1520,7 +1520,7 @@
         <v>1.463279459977748</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>5.14567259035957</v>
+        <v>5.145672590359568</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>2.028133938867501</v>
+        <v>1.943631803114072</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.3955006112528309</v>
+        <v>0.2461230202171179</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>4.510055125140969</v>
+        <v>4.317429973213295</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2.062113095451176</v>
+        <v>2.16761711397195</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-1.073919386155822</v>
+        <v>-1.15681540394856</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>2.387207533945311</v>
+        <v>2.411580424041089</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>2.5051429366272</v>
+        <v>2.420063396657816</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.1613505718397156</v>
+        <v>0.1735849748633229</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>3.919799247054735</v>
+        <v>3.944566260054142</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>5.596479011718993</v>
+        <v>5.602857070813943</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>3.737335171231896</v>
+        <v>3.71029852103217</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>7.929786764654247</v>
+        <v>7.952054533971152</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5.93838012345469</v>
+        <v>5.900016269555442</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>2.762843886019369</v>
+        <v>2.51890083845064</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>5.670437490027017</v>
+        <v>5.504185214693742</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>5.320377988919744</v>
+        <v>5.135710326736271</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>2.835794272342677</v>
+        <v>2.889206498074553</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>6.37393768608706</v>
+        <v>6.281844576415613</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>0.04778101947299782</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2384609394915748</v>
+        <v>0.238460939491575</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.2603035469376296</v>
@@ -1625,7 +1625,7 @@
         <v>0.09781655499451922</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.3439752827025613</v>
+        <v>0.3439752827025611</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.146746189890849</v>
+        <v>0.1412167938199753</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.02743289170575795</v>
+        <v>0.02025491081641716</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.3223674944769427</v>
+        <v>0.312072992642518</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.1136513950243</v>
+        <v>0.1251812696882205</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.05968913982750977</v>
+        <v>-0.06608200481169665</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1323992720331672</v>
+        <v>0.1363046313450728</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1587922646224979</v>
+        <v>0.1529187401250534</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.01038992622841446</v>
+        <v>0.01097104478686279</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.2492377887807255</v>
+        <v>0.2492163144520729</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.4624046316735</v>
+        <v>0.4639962102029158</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.3059523590737723</v>
+        <v>0.3087263393620309</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.6487477521033703</v>
+        <v>0.6577428596489127</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.3749202459282397</v>
+        <v>0.3733368150686194</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.1715906925731416</v>
+        <v>0.1579530600197872</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.3527855372835547</v>
+        <v>0.3458881453708835</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.3666043057844788</v>
+        <v>0.3555791013188596</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.1977281539009243</v>
+        <v>0.2023021237680034</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.4461240887736093</v>
+        <v>0.4371758841458364</v>
       </c>
     </row>
     <row r="34">
